--- a/sekkeisyo/基本設計演習/機能一覧表_プログラミング実習.xlsx
+++ b/sekkeisyo/基本設計演習/機能一覧表_プログラミング実習.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\workspace\test\設計書\基本設計演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\D.I.Works_text\17_追加課題6 設計書\基本設計演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B269A2E-2959-44E3-84AF-4FC377CD0254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B19A6-D680-4C44-B59F-DCFC1FCD46B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="機能一覧表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$AC$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧表!$A$1:$AC$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">機能一覧表!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -400,28 +400,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>　　権限が管理者の場合のみ閲覧・操作可能</t>
-    <rPh sb="2" eb="4">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -752,12 +730,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -812,6 +784,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1680,20 +1658,20 @@
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
@@ -1712,26 +1690,26 @@
     </row>
     <row r="9" spans="1:176" ht="13" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="54" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
@@ -1750,22 +1728,22 @@
     </row>
     <row r="10" spans="1:176" ht="13" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="59"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
@@ -1980,18 +1958,18 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="49" t="s">
+      <c r="L17" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="AA17" s="24"/>
@@ -2013,16 +1991,16 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
       <c r="V18" s="24"/>
       <c r="W18" s="24"/>
       <c r="AA18" s="24"/>
@@ -2044,16 +2022,16 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
       <c r="V19" s="24"/>
       <c r="W19" s="24"/>
       <c r="X19" s="24"/>
@@ -2285,12 +2263,12 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="51">
+      <c r="F26" s="47">
         <v>44019</v>
       </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="10" t="s">
         <v>10</v>
       </c>
@@ -2920,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:FQ48"/>
+  <dimension ref="A1:FQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="102" zoomScaleNormal="75" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="102" zoomScaleNormal="75" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2937,37 +2915,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3001,10 +2979,10 @@
         <v>2</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="61" t="s">
+      <c r="AB2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="62"/>
+      <c r="AC2" s="58"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -3034,53 +3012,53 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="63" t="s">
+      <c r="Z3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="63" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="64"/>
+      <c r="AC3" s="60"/>
     </row>
     <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="65" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="65" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="65" t="s">
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="67"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="63"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -3237,9 +3215,9 @@
       <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="11" t="s">
         <v>26</v>
       </c>
@@ -3271,10 +3249,10 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -3307,9 +3285,9 @@
       <c r="F7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="11" t="s">
         <v>31</v>
       </c>
@@ -3344,9 +3322,9 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -3379,9 +3357,9 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -3411,10 +3389,10 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3441,10 +3419,10 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -3477,9 +3455,9 @@
       <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="11" t="s">
         <v>23</v>
       </c>
@@ -3511,19 +3489,17 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="P13" s="13"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
@@ -3539,27 +3515,35 @@
       <c r="AC13" s="12"/>
     </row>
     <row r="14" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="11"/>
+      <c r="F14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="P14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -3570,21 +3554,17 @@
       <c r="AC14" s="12"/>
     </row>
     <row r="15" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -3592,7 +3572,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
       <c r="P15" s="13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -3614,22 +3594,24 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="11"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
       <c r="P16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
@@ -3647,21 +3629,17 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="P17" s="13"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -3677,23 +3655,29 @@
       <c r="AC17" s="12"/>
     </row>
     <row r="18" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="11"/>
+      <c r="F18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
       <c r="P18" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -3715,24 +3699,20 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="P19" s="13"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
@@ -3745,27 +3725,33 @@
       <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="11"/>
+      <c r="F20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
       <c r="P20" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
+      <c r="S20" s="14"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
@@ -3783,10 +3769,10 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -3795,8 +3781,8 @@
       <c r="O21" s="12"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
@@ -3809,30 +3795,22 @@
       <c r="AC21" s="12"/>
     </row>
     <row r="22" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="P22" s="13"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -3853,10 +3831,10 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3879,35 +3857,27 @@
       <c r="AC23" s="12"/>
     </row>
     <row r="24" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
-      <c r="P24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
       <c r="S24" s="14"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -3934,11 +3904,11 @@
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="11"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -3965,11 +3935,11 @@
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
       <c r="P26" s="13"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
@@ -3996,11 +3966,11 @@
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -4150,12 +4120,12 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
@@ -4181,12 +4151,12 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -4212,12 +4182,12 @@
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -4243,12 +4213,12 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="12"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -4537,130 +4507,6 @@
       <c r="AB44" s="11"/>
       <c r="AC44" s="12"/>
     </row>
-    <row r="45" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="12"/>
-    </row>
-    <row r="46" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="12"/>
-    </row>
-    <row r="47" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="12"/>
-    </row>
-    <row r="48" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:AC1"/>
